--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed2/result_data_RandomForest.xlsx
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.9947</v>
+        <v>-21.92220000000002</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.97169999999999</v>
+        <v>-11.9569</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.3904</v>
+        <v>16.476</v>
       </c>
     </row>
     <row r="9">
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.296999999999997</v>
+        <v>-8.669699999999995</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.24499999999998</v>
+        <v>-20.18029999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.01909999999998</v>
+        <v>-20.01409999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.31199999999999</v>
+        <v>16.32769999999999</v>
       </c>
     </row>
     <row r="24">
@@ -842,10 +842,10 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.49249999999999</v>
+        <v>-13.02579999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.9594</v>
+        <v>-7.8547</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.77099999999999</v>
+        <v>-21.7774</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.07099999999999</v>
+        <v>15.99599999999999</v>
       </c>
     </row>
     <row r="27">
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.228900000000007</v>
+        <v>6.403800000000006</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.299600000000009</v>
+        <v>-7.415500000000001</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.557100000000005</v>
+        <v>5.746500000000003</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.872199999999998</v>
+        <v>-8.218599999999997</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.871300000000002</v>
+        <v>-7.992899999999995</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.59260000000001</v>
+        <v>16.55770000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>10.1702</v>
+        <v>10.0873</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.455000000000001</v>
+        <v>5.596900000000006</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.58320000000001</v>
+        <v>17.34240000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.565499999999997</v>
+        <v>5.512299999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.4765</v>
+        <v>5.088800000000003</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8686</v>
+        <v>-21.8196</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1366,13 +1366,13 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.072099999999997</v>
+        <v>5.892799999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.010599999999997</v>
+        <v>-8.110599999999998</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.904999999999996</v>
+        <v>5.241199999999997</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.87629999999999</v>
+        <v>-21.92759999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>5.6503</v>
+        <v>5.440699999999998</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.70439999999999</v>
+        <v>-12.84789999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.3078</v>
+        <v>-22.3641</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1471,7 +1471,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-12.74409999999999</v>
+        <v>-13.01249999999999</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.5553</v>
+        <v>16.4659</v>
       </c>
     </row>
     <row r="63">
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.972</v>
+        <v>-8.145299999999997</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.17100000000001</v>
+        <v>17.07660000000002</v>
       </c>
     </row>
     <row r="67">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.61470000000001</v>
+        <v>-21.6649</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.32209999999999</v>
+        <v>-12.068</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.280600000000002</v>
+        <v>-8.393899999999997</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.8391</v>
+        <v>8.614799999999995</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1712,7 +1712,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.082699999999999</v>
+        <v>-8.167999999999999</v>
       </c>
       <c r="E75" t="n">
         <v>16.51</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.7548</v>
+        <v>-20.60810000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.99079999999998</v>
+        <v>-21.9881</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.303099999999988</v>
+        <v>-8.343399999999994</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.32079999999999</v>
+        <v>-13.00079999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.785999999999997</v>
+        <v>4.993699999999993</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.33940000000002</v>
+        <v>17.18020000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.486400000000002</v>
+        <v>5.302299999999999</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.5005</v>
+        <v>-21.25229999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.77230000000003</v>
+        <v>18.96560000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.707699999999999</v>
+        <v>-7.5106</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.363999999999999</v>
+        <v>-8.411999999999999</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.1666</v>
+        <v>-12.11869999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.2009</v>
+        <v>-12.47919999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.48580000000001</v>
+        <v>-13.4235</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
